--- a/UAL/output/test/Keith A Joiner_2022.xlsx
+++ b/UAL/output/test/Keith A Joiner_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -390,50 +390,55 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>host_organization</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -472,52 +477,144 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1109/itc-egypt55520.2022.9855715</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1109/itc-egypt55520.2022.9855715</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Mandy J. Hill, Ndidiamaka Amutah‐Onukagha, Charlene A. Flash, Keith A. Joiner, Folake Olayinka, Bisola Ojikutu</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W4393017917</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Enhancing Clinical Practice to Include Biomedical HIV Prevention for Black Women</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2022-03-01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>SUNY Press eBooks</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>State University of New York Press</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1515/9781438487335-012</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1515/9781438487335-012</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>book-chapter</t>
         </is>
       </c>
     </row>
